--- a/biology/Botanique/Stipa_splendens/Stipa_splendens.xlsx
+++ b/biology/Botanique/Stipa_splendens/Stipa_splendens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stipa splendens (syn. Achnatherum splendens) est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Asie centrale, de Sibérie et de Mongolie.
 Cette plante herbacée vivace, appelée jiji sao en Chine, est traditionnellement utilisée comme plante fourragère ou pour fabriquer des balais. Elle fait l'objet d'expérimentations dans le nord de la Chine pour lutter contre l'érosion des sols, comme alternative, dans les régions de climat tempéré frais, au vétiver (Chrysopogon zizanioides). 
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (1er juin 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (1er juin 2017) :
 Achnatherum splendens (Trin.) Nevski
 Achnatherum splendens var. pamiricum Tzvelev
 Agrostis longiaristata Kunth,
@@ -554,9 +568,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (1 juin 2017)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (1 juin 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Stipa splendens var. gracilis Bor
 variété Stipa splendens var. splendens</t>
         </is>
